--- a/docs/timesheet_Aurelio_Decock.xlsx
+++ b/docs/timesheet_Aurelio_Decock.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25203"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -79,12 +82,39 @@
   </si>
   <si>
     <t>Database design</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>wireframes</t>
+  </si>
+  <si>
+    <t>Style tiles</t>
+  </si>
+  <si>
+    <t>Bespreking style tiles, wireframes, ...</t>
+  </si>
+  <si>
+    <t>Database migrations</t>
+  </si>
+  <si>
+    <t>Finaal design wireframes + visuals</t>
+  </si>
+  <si>
+    <t>Visual designs</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>Dossier in indesign maken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,13 +122,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.4"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
@@ -112,8 +135,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,13 +157,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,29 +174,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -231,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -283,7 +312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -477,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,186 +514,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="44.625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="4">
         <v>42784</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="4">
         <v>42785</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="4">
         <v>42785</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="4">
         <v>42787</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="4">
         <v>42787</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="4">
         <v>42788</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="4">
         <v>42790</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="4">
         <v>42791</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5">
+        <v>42800</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5">
+        <v>42802</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5">
+        <v>42803</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
+        <v>42804</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5">
+        <v>42807</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5">
+        <v>42807</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5">
+        <v>42808</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5">
+        <v>42810</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/timesheet_Aurelio_Decock.xlsx
+++ b/docs/timesheet_Aurelio_Decock.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25203"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23544"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -51,36 +51,24 @@
     <t>Ontwerpen van de huisstijl: Ideebord</t>
   </si>
   <si>
-    <t>1.25</t>
-  </si>
-  <si>
     <t>Ontwerpen van de huisstijl: Moodboard</t>
   </si>
   <si>
     <t>Ontwerpen van de huisstijl: Logo</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>DOC</t>
   </si>
   <si>
     <t>Opzetten van het dossier</t>
   </si>
   <si>
-    <t>3.25</t>
-  </si>
-  <si>
     <t>Maken van de sitemap</t>
   </si>
   <si>
     <t>Verder werken aan het dossier</t>
   </si>
   <si>
-    <t>0.75</t>
-  </si>
-  <si>
     <t>Database design</t>
   </si>
   <si>
@@ -105,16 +93,97 @@
     <t>Visual designs</t>
   </si>
   <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>Dossier in indesign maken</t>
+    <t>Dossier in Indesign</t>
+  </si>
+  <si>
+    <t>Feedback en modelling</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>Feedback toepassen en modeling</t>
+  </si>
+  <si>
+    <t>Modeling</t>
+  </si>
+  <si>
+    <t>HTML template</t>
+  </si>
+  <si>
+    <t>Database design en html template</t>
+  </si>
+  <si>
+    <t>update html template</t>
+  </si>
+  <si>
+    <t>Relaties in migrations leggen + models</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>Afwerken models + seeding</t>
+  </si>
+  <si>
+    <t>Seeding en modelling afwerken</t>
+  </si>
+  <si>
+    <t>Authentication + API</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Core API features</t>
+  </si>
+  <si>
+    <t>API + start front</t>
+  </si>
+  <si>
+    <t>Front + auth</t>
+  </si>
+  <si>
+    <t>Elections in frontoffice</t>
+  </si>
+  <si>
+    <t>Front: Elections + bugfixing</t>
+  </si>
+  <si>
+    <t>Front: Elections detail, filtering, vote en styling</t>
+  </si>
+  <si>
+    <t>Backoffice: Graphs</t>
+  </si>
+  <si>
+    <t>Backoffice: Graphs + bugfixing</t>
+  </si>
+  <si>
+    <t>Front graphs + bugfixes</t>
+  </si>
+  <si>
+    <t>Verify votes</t>
+  </si>
+  <si>
+    <t>Verify votes + bugfixing</t>
+  </si>
+  <si>
+    <t>Image uploader + afwerken verify votes</t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t>Styling + bugfixing + dossier</t>
+  </si>
+  <si>
+    <t>Totaal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,19 +199,20 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,12 +227,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,39 +246,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -506,7 +591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,321 +599,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="44.625" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>42784</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>42785</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="4">
+      <c r="E3" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>42785</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E4" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>42787</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>42787</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>42788</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="4">
-        <v>42785</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>42790</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>42791</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>42800</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>42802</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>42803</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>42804</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>42807</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>42807</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>42808</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>42810</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="4">
-        <v>42787</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="4">
-        <v>42787</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>42811</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>42814</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>42815</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>42816</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>42817</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>42818</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>42819</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="4">
-        <v>42788</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="4">
-        <v>42790</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="4">
-        <v>42791</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5">
-        <v>42800</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5">
-        <v>42802</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="8">
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>42822</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>42823</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>42824</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5">
-        <v>42803</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5">
-        <v>42804</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="8">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>42827</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5">
-        <v>42807</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="8">
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>42846</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>42853</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5">
-        <v>42807</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="8">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>42860</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5">
-        <v>42808</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5">
-        <v>42810</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="8">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>42863</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>42865</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>42866</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>42867</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="6">
         <v>3</v>
       </c>
     </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>42870</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>42872</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>42874</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>42875</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>42876</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>42877</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>42878</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>42879</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>42880</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>42881</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
+        <f>SUM(E2:E45)</f>
+        <v>144.75</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E9"/>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <extLst>
